--- a/docs/brontoweb-a-bis-filtry.xlsx
+++ b/docs/brontoweb-a-bis-filtry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\prace\ownCloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\grifart\bis-api-client\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BDD8F2-30EF-4595-9536-43123CCCB264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA2E579-F0E1-431E-B9CD-69A4E3DC2F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BD5B196F-9056-4303-92E2-395FAAA3A253}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Dobrovolnické akce</t>
   </si>
@@ -56,9 +56,6 @@
     <t>prázdninové</t>
   </si>
   <si>
-    <t>přířoda</t>
-  </si>
-  <si>
     <t>památky</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
       </rPr>
       <t>, navíc se bere v potaz počet dnů – jednodenní = 1 den</t>
     </r>
-  </si>
-  <si>
-    <t>brďo</t>
-  </si>
-  <si>
-    <t>NEBO</t>
   </si>
   <si>
     <t>pro děti NEBO pro rodiče s dětmi</t>
@@ -209,12 +200,6 @@
 Najdi si tuto sekci (a filtr) v prvních dvou sloupcích. Na daném řádku se podívej, jaké hodnoty dává smysl v BISU vyplnit, aby se ti tam akce zobrazila.</t>
   </si>
   <si>
-    <t>Příklad:
-Víš, že chceš udělat akci pro děti (ale ne pro rodiče s dětmi) a bude to letní tábor. Najdeš si tedy sekci pro děti a řádek s filtrem akce pro děti (řádek 22).
-Z daného řádku vidíš, že je úplně jedno jaký zvolíš typ akce (nebere se v potaz), ale aby se zobrazila ve vytoužené sekci, musí mít zaškrtlý buďto program BRĎO nebo cílovou skupinu "pro děti" nebo "pro rodiče s dětmi". Nebo taky obojí dohromady.
-Snaž se vždy přijít na co nejpopisnější kombinaci. Filtry by měly odpovídat orgovským potřebám, ne naopak. Pokud máš problém se zařazením akce, napiš na web@brontosaurus.cz, zkusíme to promyslet nebo poradíme.</t>
-  </si>
-  <si>
     <t>nevybráno NEBO mládež a dospělí NEBO všichni NEBO prvoúčastníci</t>
   </si>
   <si>
@@ -265,6 +250,109 @@
   </si>
   <si>
     <t>Cílová skupina (pro koho) (BIS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Příklad:
+Víš, že chceš udělat akci pro děti (ale ne pro rodiče s dětmi) a bude to letní tábor. Najdeš si tedy sekci </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pro děti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a řádek s filtrem </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dětské tábory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Z daného řádku vidíš, že je úplně jedno jaký zvolíš typ akce (nebere se v potaz), ale musíš v BISu zadat akci přes stránku </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nový tábor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Dále zaškrtni cílovou skupinu </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pro děti.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Snaž se vždy přijít na co nejpopisnější kombinaci. Filtry by měly odpovídat orgovským potřebám, ne naopak. Pokud máš problém se zařazením akce, napiš na web@brontosaurus.cz, poradíme nebo to promyslíme.</t>
+    </r>
+  </si>
+  <si>
+    <t>příroda</t>
   </si>
 </sst>
 </file>
@@ -366,9 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -412,6 +497,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -735,7 +823,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,57 +831,57 @@
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>43</v>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,19 +889,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,286 +909,274 @@
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="13"/>
-      <c r="F10" s="13"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="13"/>
-      <c r="F15" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="F17" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>35</v>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="E20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="13"/>
-      <c r="F23" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>26</v>
+      <c r="A25" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/brontoweb-a-bis-filtry.xlsx
+++ b/docs/brontoweb-a-bis-filtry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\grifart\bis-api-client\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA2E579-F0E1-431E-B9CD-69A4E3DC2F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807766D9-AA01-4216-A1A6-F7A94F9F4782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BD5B196F-9056-4303-92E2-395FAAA3A253}"/>
   </bookViews>
@@ -200,9 +200,6 @@
 Najdi si tuto sekci (a filtr) v prvních dvou sloupcích. Na daném řádku se podívej, jaké hodnoty dává smysl v BISU vyplnit, aby se ti tam akce zobrazila.</t>
   </si>
   <si>
-    <t>nevybráno NEBO mládež a dospělí NEBO všichni NEBO prvoúčastníci</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>příroda</t>
+  </si>
+  <si>
+    <t>všichni NEBO mládež a dospělí NEBO prvoúčastníci</t>
   </si>
 </sst>
 </file>
@@ -821,9 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4EEF7-A499-4509-806D-9E8B5DBE4B19}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,21 +840,21 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,12 +945,12 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>34</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="29" spans="1:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>

--- a/docs/brontoweb-a-bis-filtry.xlsx
+++ b/docs/brontoweb-a-bis-filtry.xlsx
@@ -535,21 +535,21 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="39.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -691,8 +691,8 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
